--- a/data/raw_xlsx/Times For Easton Chen.xlsx
+++ b/data/raw_xlsx/Times For Easton Chen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="113">
   <si>
     <t>Event</t>
   </si>
@@ -311,6 +311,51 @@
   </si>
   <si>
     <t>6/18/2005</t>
+  </si>
+  <si>
+    <t>2006 EISL Champs</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>3/2/2006</t>
+  </si>
+  <si>
+    <t>2006 NE Men's HYP</t>
+  </si>
+  <si>
+    <t>2/3/2006</t>
+  </si>
+  <si>
+    <t>2017 US Open</t>
+  </si>
+  <si>
+    <t>2007 EISL Champs men</t>
+  </si>
+  <si>
+    <t>2/22/2007</t>
+  </si>
+  <si>
+    <t>2008 EISL Champs men</t>
+  </si>
+  <si>
+    <t>3/6/2008</t>
+  </si>
+  <si>
+    <t>2009 NE Men's Harvard-Yale-Princeton</t>
+  </si>
+  <si>
+    <t>1/31/2009</t>
+  </si>
+  <si>
+    <t>2009 Ivy League Champs men</t>
+  </si>
+  <si>
+    <t>3/5/2009</t>
+  </si>
+  <si>
+    <t>2019 Winter US Open (LCM)</t>
   </si>
 </sst>
 </file>
@@ -2702,6 +2747,390 @@
         <v>94</v>
       </c>
     </row>
+    <row r="73" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="2">
+        <v>33.50067025462963</v>
+      </c>
+      <c r="C73" s="2">
+        <v>36557.50067025463</v>
+      </c>
+      <c r="D73" t="n">
+        <v>19</v>
+      </c>
+      <c r="E73" t="n">
+        <v>779</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" t="s">
+        <v>98</v>
+      </c>
+      <c r="H73" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" t="s">
+        <v>65</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="3">
+        <v>33.50145775462963</v>
+      </c>
+      <c r="C74" s="3">
+        <v>33.50145775462963</v>
+      </c>
+      <c r="D74" t="n">
+        <v>19</v>
+      </c>
+      <c r="E74" t="n">
+        <v>787</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" t="s">
+        <v>99</v>
+      </c>
+      <c r="I74" t="s">
+        <v>65</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="3">
+        <v>33.50131030092592</v>
+      </c>
+      <c r="C75" s="3">
+        <v>33.50131030092592</v>
+      </c>
+      <c r="D75" t="n">
+        <v>19</v>
+      </c>
+      <c r="E75" t="n">
+        <v>773</v>
+      </c>
+      <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="2">
+        <v>33.50065914351852</v>
+      </c>
+      <c r="C76" s="2">
+        <v>36557.500659143516</v>
+      </c>
+      <c r="D76" t="n">
+        <v>20</v>
+      </c>
+      <c r="E76" t="n">
+        <v>817</v>
+      </c>
+      <c r="F76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>65</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="3">
+        <v>33.501438657407405</v>
+      </c>
+      <c r="C77" s="3">
+        <v>33.501438657407405</v>
+      </c>
+      <c r="D77" t="n">
+        <v>20</v>
+      </c>
+      <c r="E77" t="n">
+        <v>815</v>
+      </c>
+      <c r="F77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" t="s">
+        <v>99</v>
+      </c>
+      <c r="I77" t="s">
+        <v>65</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="3">
+        <v>33.50129976851852</v>
+      </c>
+      <c r="C78" s="3">
+        <v>33.50129976851852</v>
+      </c>
+      <c r="D78" t="n">
+        <v>20</v>
+      </c>
+      <c r="E78" t="n">
+        <v>795</v>
+      </c>
+      <c r="F78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78" t="s">
+        <v>99</v>
+      </c>
+      <c r="I78" t="s">
+        <v>65</v>
+      </c>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="2">
+        <v>33.50066018518518</v>
+      </c>
+      <c r="C79" s="2">
+        <v>36557.500660185186</v>
+      </c>
+      <c r="D79" t="n">
+        <v>21</v>
+      </c>
+      <c r="E79" t="n">
+        <v>813</v>
+      </c>
+      <c r="F79" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" t="s">
+        <v>99</v>
+      </c>
+      <c r="I79" t="s">
+        <v>65</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="3">
+        <v>33.50144039351852</v>
+      </c>
+      <c r="C80" s="3">
+        <v>33.50144039351852</v>
+      </c>
+      <c r="D80" t="n">
+        <v>21</v>
+      </c>
+      <c r="E80" t="n">
+        <v>813</v>
+      </c>
+      <c r="F80" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" t="s">
+        <v>65</v>
+      </c>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="3">
+        <v>33.50130451388889</v>
+      </c>
+      <c r="C81" s="3">
+        <v>33.50130451388889</v>
+      </c>
+      <c r="D81" t="n">
+        <v>21</v>
+      </c>
+      <c r="E81" t="n">
+        <v>785</v>
+      </c>
+      <c r="F81" t="s">
+        <v>103</v>
+      </c>
+      <c r="G81" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="2">
+        <v>33.50064143518519</v>
+      </c>
+      <c r="C82" s="2">
+        <v>36557.50064143519</v>
+      </c>
+      <c r="D82" t="n">
+        <v>22</v>
+      </c>
+      <c r="E82" t="n">
+        <v>879</v>
+      </c>
+      <c r="F82" t="s">
+        <v>103</v>
+      </c>
+      <c r="G82" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" t="s">
+        <v>99</v>
+      </c>
+      <c r="I82" t="s">
+        <v>65</v>
+      </c>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="3">
+        <v>33.50139814814815</v>
+      </c>
+      <c r="C83" s="3">
+        <v>33.50139814814815</v>
+      </c>
+      <c r="D83" t="n">
+        <v>22</v>
+      </c>
+      <c r="E83" t="n">
+        <v>875</v>
+      </c>
+      <c r="F83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83" t="s">
+        <v>99</v>
+      </c>
+      <c r="I83" t="s">
+        <v>65</v>
+      </c>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="3">
+        <v>33.50128356481481</v>
+      </c>
+      <c r="C84" s="3">
+        <v>33.50128356481481</v>
+      </c>
+      <c r="D84" t="n">
+        <v>22</v>
+      </c>
+      <c r="E84" t="n">
+        <v>828</v>
+      </c>
+      <c r="F84" t="s">
+        <v>112</v>
+      </c>
+      <c r="G84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" t="s">
+        <v>99</v>
+      </c>
+      <c r="I84" t="s">
+        <v>65</v>
+      </c>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
